--- a/Pivot.xlsx
+++ b/Pivot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisheethjaiswal/Documents/Aston-AI/Innovation-Factory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NISHEETH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E9B1A7-FA37-094C-A40F-464137DEE8D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B529B8-3BED-4EB4-9780-0A97221BC9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{A10C861B-46FC-3948-B8F3-CE9FFC0FE4D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A10C861B-46FC-3948-B8F3-CE9FFC0FE4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,16 +529,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762B7955-4382-A941-B4ED-140B7AFD1FFC}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -560,7 +560,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -571,7 +571,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -593,7 +593,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -615,7 +615,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -637,7 +637,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -659,7 +659,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -681,7 +681,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -747,7 +747,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -791,7 +791,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -802,84 +802,114 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
